--- a/biology/Zoologie/Homininae/Homininae.xlsx
+++ b/biology/Zoologie/Homininae/Homininae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homininés
 Les Homininés (Homininae) sont une sous-famille de primates simiiformes, de la famille des Hominidés. Cette sous-famille rassemble les hominoïdes euro-africains, à savoir les tribus des Gorillini (les gorilles) et des Hominini (les représentants du genre Homo et les chimpanzés).
@@ -512,10 +524,12 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des genres actuels d'hominidés, d'après Shoshani et al. (1996)[1] et Springer et al. (2012)[2] :
-Selon la synthèse des études réalisées par différents chercheurs sur le sujet, les Homininae auraient divergé des Ponginae il y a environ 16 millions d'années[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des genres actuels d'hominidés, d'après Shoshani et al. (1996) et Springer et al. (2012) :
+Selon la synthèse des études réalisées par différents chercheurs sur le sujet, les Homininae auraient divergé des Ponginae il y a environ 16 millions d'années.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Espèces actuelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des espèces actuelles selon ITIS[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des espèces actuelles selon ITIS :
 Genre Gorilla Geoffroy Saint-Hilaire, 1852 :
 Gorilla gorilla Savage, 1847 - Gorille de l'Ouest
 Gorilla beringei Matschie, 1903 - Gorille de l'Est
@@ -582,10 +598,12 @@
           <t>Taxons fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les taxons fossiles européens du Miocène rattachés à la tribu des Dryopithecini sont classés par la plupart des spécialistes nord-américains, et par un nombre croissant de chercheurs européens, parmi les Homininae, mais en dehors du groupe-couronne de ces derniers. Ils représentent donc en l'état actuel des connaissances des taxons basaux de la sous-famille des Homininae (voir schéma ci-contre).
-La tribu des Dryopithecini rassemble les taxons fossiles européens suivants[6] :
+La tribu des Dryopithecini rassemble les taxons fossiles européens suivants :
 Tribu † Dryopithecini Gregory &amp; Hellman, 1939 :
 Sous-tribu † Dryopithecina Gregory &amp; Hellman, 1939 :
 Genre † Dryopithecus Lartet, 1856
@@ -596,7 +614,7 @@
 Sous-tribu † Ouranopithecina Begun, 2009 :
 Genre † Ouranopithecus Bonis &amp; Melentis, 1977
 Genre † Graecopithecus Koenigswald, 1972
-Il convient d'ajouter à cette liste les deux genres fossiles africains suivants[6] :
+Il convient d'ajouter à cette liste les deux genres fossiles africains suivants :
 † Chororapithecus Suwa et al., 2007 (possible Gorillini)
 † Nakalipithecus Kunimatsu et al., 2007 (possible Hominini)</t>
         </is>
